--- a/player_scores.xlsx
+++ b/player_scores.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05931516769736236</v>
+        <v>-0.05931516769736235</v>
       </c>
     </row>
     <row r="17">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3069793719305974</v>
+        <v>-0.3069793719305975</v>
       </c>
     </row>
     <row r="20">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005243094914738989</v>
+        <v>-0.005243094914738983</v>
       </c>
     </row>
     <row r="23">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09990703194902172</v>
+        <v>0.0999070319490217</v>
       </c>
     </row>
     <row r="25">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.03741110982631637</v>
+        <v>-0.03741110982631635</v>
       </c>
     </row>
     <row r="28">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.09421348167506201</v>
+        <v>-0.09421348167506202</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07279364689780141</v>
+        <v>-0.07279364689780139</v>
       </c>
     </row>
     <row r="35">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.2823974595631665</v>
+        <v>-0.2823974595631666</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.002100530557000856</v>
+        <v>-0.002100530557000859</v>
       </c>
     </row>
     <row r="54">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.009501117240594794</v>
+        <v>-0.009501117240594785</v>
       </c>
     </row>
     <row r="57">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.0414926571274016</v>
+        <v>-0.04149265712740159</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.006632197058229857</v>
+        <v>0.006632197058229856</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01688795277747085</v>
+        <v>0.01688795277747086</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.007894357705547264</v>
+        <v>0.007894357705547276</v>
       </c>
     </row>
     <row r="62">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.008382073170275468</v>
+        <v>-0.008382073170275457</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.0143028176851671</v>
+        <v>-0.01430281768516708</v>
       </c>
     </row>
     <row r="67">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01093885602750555</v>
+        <v>0.01093885602750557</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02703306490989708</v>
+        <v>0.0270330649098971</v>
       </c>
     </row>
     <row r="70">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.08127697723661732</v>
+        <v>-0.08127697723661734</v>
       </c>
     </row>
     <row r="79">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03638017565047692</v>
+        <v>0.03638017565047691</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.0215153756233217</v>
+        <v>-0.02151537562332171</v>
       </c>
     </row>
     <row r="97">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.449268492969307</v>
+        <v>0.4492684929693069</v>
       </c>
     </row>
     <row r="107">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.07370327716450033</v>
+        <v>-0.07370327716450031</v>
       </c>
     </row>
     <row r="120">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.2729028605682403</v>
+        <v>0.2729028605682404</v>
       </c>
     </row>
     <row r="142">

--- a/player_scores.xlsx
+++ b/player_scores.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5664960695472127</v>
+        <v>-0.5564156087177579</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4361400413227467</v>
+        <v>-0.4275240224943572</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5371685250986227</v>
+        <v>-0.5333433699685541</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4931828166462521</v>
+        <v>-0.486586510463851</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5571679912696158</v>
+        <v>-0.5422467642233718</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5466931779871508</v>
+        <v>-0.5385096696221158</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5712379502829247</v>
+        <v>-0.5595732703300452</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7974733395810489</v>
+        <v>-0.7842403284755509</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.5425470077601648</v>
+        <v>-0.528873668101155</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4026775245560015</v>
+        <v>-0.4018488495761917</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3404220649242103</v>
+        <v>-0.3324204119953784</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.5464065075226781</v>
+        <v>-0.5342566809023939</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4144728952908346</v>
+        <v>0.4103203286347272</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02358490778145368</v>
+        <v>0.02577003459214672</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05931516769736235</v>
+        <v>-0.05180021443689822</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2266109970553055</v>
+        <v>0.2226697758435376</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2077798954074883</v>
+        <v>-0.1998742391597431</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3069793719305975</v>
+        <v>-0.302881389011053</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01155715253908448</v>
+        <v>0.01071177958737638</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.284731672537188</v>
+        <v>0.2837419943290829</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005243094914738983</v>
+        <v>-0.0009008443102175772</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06392999676223968</v>
+        <v>0.07029274788432402</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0999070319490217</v>
+        <v>0.1059463756062084</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.2512958655336935</v>
+        <v>-0.2500642385603942</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1658123980933962</v>
+        <v>-0.524580455280148</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.03741110982631635</v>
+        <v>-0.04515960396437865</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2179162127468129</v>
+        <v>0.2156411587510919</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1275363987006121</v>
+        <v>-0.1314263351893369</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.09421348167506202</v>
+        <v>-0.5850181163062204</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.118423199919853</v>
+        <v>-0.1462391486695148</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.1920792050671807</v>
+        <v>-0.7234135274216182</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1776041784525154</v>
+        <v>-0.5346827666976146</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07279364689780139</v>
+        <v>-0.08586019081724912</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01510879135064917</v>
+        <v>-0.03686977869022505</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.1994933507736878</v>
+        <v>-0.2366842681428179</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.23605657102707</v>
+        <v>-0.03807053168543922</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.3022795516967504</v>
+        <v>-0.3024009998460057</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.6571408764479121</v>
+        <v>-0.6500194146073662</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.2823974595631666</v>
+        <v>-0.2786227507028371</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.1753352089740312</v>
+        <v>-0.1701062260614057</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.3147999646388679</v>
+        <v>-0.3150521232915476</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1847239898599183</v>
+        <v>-0.1734365660856814</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.2340311456644844</v>
+        <v>-0.2231895008059257</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.2412528006065553</v>
+        <v>-0.2434780215049762</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.2751932964850113</v>
+        <v>-0.2683025648044587</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.6284685788168278</v>
+        <v>-0.6272165205720669</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.374323726930951</v>
+        <v>-0.3711760376551108</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.2519311507540934</v>
+        <v>-0.2531812400775942</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.07433946178030867</v>
+        <v>0.07364605221301405</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.1366867419062487</v>
+        <v>-0.1353434235215933</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.01172748182599049</v>
+        <v>-0.01123971634111485</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.002100530557000859</v>
+        <v>-0.001236532912393393</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.0009408250518614793</v>
+        <v>-0.002089001564205733</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1976166453420277</v>
+        <v>0.2005028957384935</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.009501117240594785</v>
+        <v>-0.004715140552902364</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.01564762683657516</v>
+        <v>-0.01076359204163499</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.04149265712740159</v>
+        <v>-0.03446860357844192</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.006632197058229856</v>
+        <v>0.007882290852490649</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01688795277747086</v>
+        <v>0.01721950968801635</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.007894357705547276</v>
+        <v>0.008001568497931266</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1296776238540422</v>
+        <v>0.1208043648004932</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2130853869571952</v>
+        <v>0.1995975982242096</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.203853777179843</v>
+        <v>-0.2106988482543621</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.008382073170275457</v>
+        <v>-0.01494068217933397</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.01430281768516708</v>
+        <v>-0.01586084762646789</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.03231732722739699</v>
+        <v>0.02689245521314016</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01093885602750557</v>
+        <v>0.009185046254713787</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0270330649098971</v>
+        <v>0.0299524224155131</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2455166095388436</v>
+        <v>0.2374578835232458</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.07134232224975101</v>
+        <v>-0.07456513160935554</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.4310516329957331</v>
+        <v>0.4310618009931309</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2263222698669136</v>
+        <v>0.2255381740171774</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2093110868181786</v>
+        <v>0.2113574054334354</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4367228708906591</v>
+        <v>0.4367713360788911</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2066625670401257</v>
+        <v>0.2087043362453074</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.2089765009323316</v>
+        <v>-0.2089202487810465</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.08127697723661734</v>
+        <v>-0.08251047970753883</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4357946272645412</v>
+        <v>0.4339234612588519</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02589980063020375</v>
+        <v>0.02816168233404266</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1986133481052239</v>
+        <v>0.2005660163019574</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1303470659471042</v>
+        <v>0.1314813139393718</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01094085719139458</v>
+        <v>0.01348765121891772</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.173748220711727</v>
+        <v>0.1717773262884968</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2504041201479615</v>
+        <v>0.2492830132973209</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1202593546188853</v>
+        <v>0.1229963154637831</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2675351494061741</v>
+        <v>0.2665923333720266</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3570341646186974</v>
+        <v>0.2967647506756898</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.04941819241653365</v>
+        <v>0.007662214967287135</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.3670699540512709</v>
+        <v>0.3607794385023018</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.272985159173188</v>
+        <v>0.270576203847216</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2312854247614052</v>
+        <v>0.2319980630962707</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03638017565047691</v>
+        <v>0.03740101152160887</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1161180873737637</v>
+        <v>0.1155018833304443</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05748720845702045</v>
+        <v>-0.001187827020773488</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.02151537562332171</v>
+        <v>-0.08872351614064322</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1617353827136256</v>
+        <v>0.1603531809623797</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.5533821121420188</v>
+        <v>0.5484172777273461</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.484205464036842</v>
+        <v>0.4798796431078849</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.4236925397683906</v>
+        <v>0.4245181693709317</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.7454669809451054</v>
+        <v>0.7355158505975344</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.3310542140074799</v>
+        <v>0.3331842262103633</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2631345108208606</v>
+        <v>0.263552967307774</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3185023476819153</v>
+        <v>0.3184067551243396</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0979728812981268</v>
+        <v>0.09912067001289114</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.4492684929693069</v>
+        <v>0.4484930862073688</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.6822795084745374</v>
+        <v>0.6805058895183105</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.5029500087637681</v>
+        <v>0.5041016097777157</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2975128394246513</v>
+        <v>0.2926168289963094</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2694575730101699</v>
+        <v>0.2656065206919941</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.07754066984257242</v>
+        <v>0.1398993300666443</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.0477600149143873</v>
+        <v>-0.03627225843221279</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1755379928819636</v>
+        <v>0.1751186017580244</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.1004729398308437</v>
+        <v>-0.09910864820923336</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.162615240589367</v>
+        <v>0.1719304690711749</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1038539838732898</v>
+        <v>0.1102008042247897</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1141277493459276</v>
+        <v>0.4262232588137721</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1057233991064729</v>
+        <v>0.3078942490996195</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.07370327716450031</v>
+        <v>0.2370822352083654</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.06244402007442865</v>
+        <v>-0.05894220047323203</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.2121881080823664</v>
+        <v>0.2206771336409803</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.3764873681567382</v>
+        <v>-0.2804093476279386</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.373037751830464</v>
+        <v>-0.3673248519624183</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.3978231460803199</v>
+        <v>-0.3937045095462684</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.4605336321505669</v>
+        <v>-0.4033233081659204</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.4380338817586157</v>
+        <v>-0.4452970513730508</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.4731803917823798</v>
+        <v>-0.408146911570463</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.3206905203920072</v>
+        <v>-0.3189399948014087</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.4985917344926163</v>
+        <v>-0.4912935706757151</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.5868984659402303</v>
+        <v>-0.5866921356572911</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.3179646442813064</v>
+        <v>-0.2657138975814248</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.6394334570414045</v>
+        <v>-0.6284737474941555</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.3912465695228383</v>
+        <v>-0.3827226656969052</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.4905996676788515</v>
+        <v>0.4907452535114542</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.4025874100312921</v>
+        <v>0.6699912438612446</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.3305835078702661</v>
+        <v>0.3396173070196175</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.3988252963059269</v>
+        <v>0.3998889134471579</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.146418781965773</v>
+        <v>0.4563493918544219</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.4076768932778474</v>
+        <v>0.7634586520201169</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.132698968441055</v>
+        <v>0.1342989457595435</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.2729028605682404</v>
+        <v>0.2844563281224317</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.4783126136697041</v>
+        <v>0.7070073974747663</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.59175860304156</v>
+        <v>0.5954804733038488</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.5909453997744539</v>
+        <v>0.5831926201357743</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.4844257811259522</v>
+        <v>0.4845124551917712</v>
       </c>
     </row>
   </sheetData>

--- a/player_scores.xlsx
+++ b/player_scores.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.556415608717758</v>
+        <v>-0.008582491033792784</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4275240224943572</v>
+        <v>0.001259289844226017</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5333433699685541</v>
+        <v>-0.02442963827455951</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.486586510463851</v>
+        <v>0.1289529569666686</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5422467642233718</v>
+        <v>-0.05772117014622091</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5385096696221158</v>
+        <v>0.06838248438443442</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5595732703300452</v>
+        <v>-0.0379862293178541</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7842403284755509</v>
+        <v>-1.230882370299509</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.528873668101155</v>
+        <v>-0.3392088076614932</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4018488495761917</v>
+        <v>0.06229875701248596</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3324204119953784</v>
+        <v>-0.2342966718114712</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.5342566809023939</v>
+        <v>0.09364278268124432</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4103203286347273</v>
+        <v>0.1238765408668712</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02577003459214674</v>
+        <v>0.04433669834407059</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0518002144368982</v>
+        <v>-0.1821617573089686</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2226697758435376</v>
+        <v>-0.0239654337709389</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1998742391597431</v>
+        <v>0.004530870243533909</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.302881389011053</v>
+        <v>-0.0449260506362156</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01071177958737639</v>
+        <v>0.06319487224919926</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2837419943290829</v>
+        <v>-0.03896306225663218</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0009008443102175772</v>
+        <v>-0.04116147036551505</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07029274788432403</v>
+        <v>-0.2683014152655767</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1059463756062084</v>
+        <v>-0.1423152402291442</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.2500642385603942</v>
+        <v>-0.1176595118950027</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.524580455280148</v>
+        <v>-0.01843494610602492</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.04515960396437863</v>
+        <v>-0.1090345532207119</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2156411587510919</v>
+        <v>0.09412769891972306</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1314263351893369</v>
+        <v>-0.0427532548107288</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.5850181163062202</v>
+        <v>0.2583685182563726</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.1462391486695148</v>
+        <v>0.114415365795589</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.7234135274216182</v>
+        <v>0.07191817763789608</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.5346827666976146</v>
+        <v>-0.2056181462415476</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.08586019081724912</v>
+        <v>-0.01277234401919168</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.03686977869022503</v>
+        <v>0.05469017821868484</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.2366842681428179</v>
+        <v>0.07724243486635569</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.03807053168543924</v>
+        <v>-0.1080128677471959</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.3024009998460057</v>
+        <v>-0.07255140090033818</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.6500194146073661</v>
+        <v>-0.05790566664325944</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.2786227507028371</v>
+        <v>-0.1402833292039349</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.1701062260614058</v>
+        <v>-0.04278007865016521</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.3150521232915476</v>
+        <v>-0.0225906246886672</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1734365660856814</v>
+        <v>0.04429439255119884</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.2231895008059257</v>
+        <v>-0.006498268791416435</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.2434780215049762</v>
+        <v>0.07668994925630175</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.2683025648044587</v>
+        <v>0.0396310190448035</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.6272165205720669</v>
+        <v>-0.02854801825715207</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.3711760376551108</v>
+        <v>0.04678565052657106</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.2531812400775941</v>
+        <v>0.03474077091386556</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0736460522130141</v>
+        <v>0.09909659173505841</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.1353434235215932</v>
+        <v>-0.0509498830036856</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.01123971634111484</v>
+        <v>-0.03185462557439804</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.001236532912393382</v>
+        <v>0.3048056779858859</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.002089001564205717</v>
+        <v>-0.09365906717917298</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2005028957384935</v>
+        <v>0.09946834986220522</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.004715140552902355</v>
+        <v>-0.03042807965892136</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.01076359204163497</v>
+        <v>0.08514807708867091</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.03446860357844192</v>
+        <v>0.1239717087987783</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.007882290852490653</v>
+        <v>0.02495590396582821</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01721950968801638</v>
+        <v>0.03879748821737399</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.008001568497931271</v>
+        <v>0.004657722588596173</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1208043648004932</v>
+        <v>-0.0002798577851258586</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1995975982242096</v>
+        <v>0.03838369216465553</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.2106988482543622</v>
+        <v>-0.03021939252719191</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.01494068217933396</v>
+        <v>-0.131192107300476</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.01586084762646788</v>
+        <v>0.02313086721624955</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.02689245521314016</v>
+        <v>0.01311972264432302</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.009185046254713785</v>
+        <v>-0.03559478863655493</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02995242241551312</v>
+        <v>0.0826472047450407</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2374578835232458</v>
+        <v>-0.0008575982467355932</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.07456513160935557</v>
+        <v>0.1514411117325225</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.4310618009931309</v>
+        <v>-0.0004756582986604487</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2255381740171774</v>
+        <v>0.006721601273769123</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2113574054334354</v>
+        <v>0.1146727101642171</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4367713360788911</v>
+        <v>-0.1259892443655085</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2087043362453074</v>
+        <v>0.005149092729170687</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.2089202487810465</v>
+        <v>0.2060247856349457</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.08251047970753883</v>
+        <v>0.1179877925205097</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.4339234612588519</v>
+        <v>0.0009349913177370787</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02816168233404266</v>
+        <v>0.3034715803702613</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2005660163019574</v>
+        <v>0.01712875016670751</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1314813139393718</v>
+        <v>-0.01618710281992659</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01348765121891773</v>
+        <v>0.01062738992239093</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1717773262884968</v>
+        <v>0.06367181880514754</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2492830132973209</v>
+        <v>-0.05536451171588776</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1229963154637831</v>
+        <v>-0.01026333991109764</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2665923333720266</v>
+        <v>-0.01321182992238598</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2967647506756897</v>
+        <v>0.00944829772868069</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.007662214967287141</v>
+        <v>0.08136299477358502</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.3607794385023018</v>
+        <v>0.01790597052877218</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.270576203847216</v>
+        <v>0.09106143740512627</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2319980630962707</v>
+        <v>-0.03708151263548087</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03740101152160885</v>
+        <v>0.03751466237698752</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1155018833304443</v>
+        <v>0.02505889368763221</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.001187827020773474</v>
+        <v>0.1702770362830267</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.08872351614064322</v>
+        <v>-0.02169634304965889</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1603531809623797</v>
+        <v>0.1125666738641718</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.5484172777273461</v>
+        <v>0.08181029773972348</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4798796431078849</v>
+        <v>-0.1708877406889865</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.4245181693709317</v>
+        <v>-0.03131501228215127</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.7355158505975344</v>
+        <v>-0.09461904387402881</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.3331842262103633</v>
+        <v>0.01725190039785168</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.263552967307774</v>
+        <v>0.01337387131313585</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3184067551243396</v>
+        <v>0.04131088743321402</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.09912067001289114</v>
+        <v>0.004077592819615563</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.4484930862073688</v>
+        <v>0.1188743089212392</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.6805058895183106</v>
+        <v>0.09620198687928733</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.5041016097777157</v>
+        <v>-0.03180684945054535</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2926168289963094</v>
+        <v>0.01072357973629516</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2656065206919941</v>
+        <v>0.02648777604147308</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1398993300666443</v>
+        <v>-0.2943231178727221</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.03627225843221278</v>
+        <v>-0.3850324967847586</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1751186017580244</v>
+        <v>0.005770956600004068</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.09910864820923336</v>
+        <v>0.07003151697383922</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.171930469071175</v>
+        <v>-0.01299045906264277</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1102008042247897</v>
+        <v>0.04617127342608138</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.4262232588137721</v>
+        <v>0.1056226653928243</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.3078942490996195</v>
+        <v>0.03129500411024795</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.2370822352083654</v>
+        <v>0.08647942864542033</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.05894220047323204</v>
+        <v>-0.08382647182021702</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.2206771336409803</v>
+        <v>0.07291487857231928</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.2804093476279386</v>
+        <v>-0.141027094424721</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.3673248519624183</v>
+        <v>0.08679377287135553</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.3937045095462684</v>
+        <v>0.1358120707589937</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.4033233081659204</v>
+        <v>0.08590512469212541</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.4452970513730508</v>
+        <v>0.06791772756938137</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.408146911570463</v>
+        <v>-0.02100124436367404</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.3189399948014088</v>
+        <v>-0.1217702193541977</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.4912935706757151</v>
+        <v>0.02998194016755904</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.5866921356572911</v>
+        <v>-0.07075142161236891</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.2657138975814248</v>
+        <v>-0.1386939767433316</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.6284737474941555</v>
+        <v>0.1441809717899108</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.3827226656969052</v>
+        <v>-0.061538509727093</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.4907452535114542</v>
+        <v>0.09864540175078078</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.6699912438612448</v>
+        <v>0.06738772094159082</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.3396173070196175</v>
+        <v>0.1213174379288375</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.3998889134471579</v>
+        <v>0.06970710227507089</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.4563493918544219</v>
+        <v>0.02603802081564112</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.7634586520201169</v>
+        <v>-0.04230118315318914</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1342989457595435</v>
+        <v>-0.157812024941234</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.2844563281224317</v>
+        <v>-0.1305335607692852</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.7070073974747662</v>
+        <v>-0.1166634569786315</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.5954804733038488</v>
+        <v>0.2651190966888476</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.5831926201357743</v>
+        <v>-0.3415527557411472</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.4845124551917712</v>
+        <v>-0.06460699723016715</v>
       </c>
     </row>
   </sheetData>

--- a/player_scores.xlsx
+++ b/player_scores.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.008582491033792784</v>
+        <v>-0.02414554235419717</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001259289844226017</v>
+        <v>-0.01140448234065788</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02442963827455951</v>
+        <v>-0.02775600639231937</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1289529569666686</v>
+        <v>0.08664600274800792</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.05772117014622091</v>
+        <v>-0.05399691724685716</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06838248438443442</v>
+        <v>0.08283518340851156</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0379862293178541</v>
+        <v>-0.04538936948287684</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.230882370299509</v>
+        <v>-1.064060464360559</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3392088076614932</v>
+        <v>-0.2942803954758411</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06229875701248596</v>
+        <v>0.07353380465109075</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2342966718114712</v>
+        <v>-0.2429141688521459</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09364278268124432</v>
+        <v>0.1007510145140292</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1238765408668712</v>
+        <v>0.1394591893808465</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04433669834407059</v>
+        <v>0.05595878353972511</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1821617573089686</v>
+        <v>-0.2030501033987691</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0239654337709389</v>
+        <v>-0.03150597045694604</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004530870243533909</v>
+        <v>0.01702676946476363</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0449260506362156</v>
+        <v>-0.05593422247865686</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06319487224919926</v>
+        <v>0.06964040920961098</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.03896306225663218</v>
+        <v>-0.04728365455912673</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.04116147036551505</v>
+        <v>-0.036690726470112</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.2683014152655767</v>
+        <v>-0.2131216748485474</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1423152402291442</v>
+        <v>-0.135642557020892</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1176595118950027</v>
+        <v>-0.1232782364354057</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.01843494610602492</v>
+        <v>-0.01482329673449276</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1090345532207119</v>
+        <v>-0.09112927956433116</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09412769891972306</v>
+        <v>0.09745808580017103</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0427532548107288</v>
+        <v>-0.0292976298268946</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2583685182563726</v>
+        <v>0.2966311219328205</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.114415365795589</v>
+        <v>0.1244092491812492</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.07191817763789608</v>
+        <v>0.08536670433118942</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.2056181462415476</v>
+        <v>-0.2170657274203468</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.01277234401919168</v>
+        <v>-0.008424866312576402</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.05469017821868484</v>
+        <v>0.05972583086399264</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.07724243486635569</v>
+        <v>0.08195638906796375</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1080128677471959</v>
+        <v>-0.1031292726688425</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.07255140090033818</v>
+        <v>-0.08639293143202467</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.05790566664325944</v>
+        <v>-0.05950230552997333</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1402833292039349</v>
+        <v>-0.1504752049468416</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.04278007865016521</v>
+        <v>-0.04351869477927085</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.0225906246886672</v>
+        <v>-0.01320498561827339</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.04429439255119884</v>
+        <v>0.0586803586600376</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.006498268791416435</v>
+        <v>0.002213946133020311</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.07668994925630175</v>
+        <v>0.08317388556535235</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0396310190448035</v>
+        <v>0.05397937150666648</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02854801825715207</v>
+        <v>-0.02198896130691561</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04678565052657106</v>
+        <v>0.04668965534701248</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.03474077091386556</v>
+        <v>0.04509021319322906</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.09909659173505841</v>
+        <v>0.08393785082728504</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.0509498830036856</v>
+        <v>-0.04056332899134481</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.03185462557439804</v>
+        <v>-0.03105087175878767</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3048056779858859</v>
+        <v>0.2620292164170217</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.09365906717917298</v>
+        <v>-0.1038826309706824</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.09946834986220522</v>
+        <v>0.1083021984952023</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.03042807965892136</v>
+        <v>-0.03438586094472781</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.08514807708867091</v>
+        <v>0.1024797746693208</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1239717087987783</v>
+        <v>0.1347530042272633</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02495590396582821</v>
+        <v>0.02830683833225517</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.03879748821737399</v>
+        <v>0.04133195581469053</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.004657722588596173</v>
+        <v>-0.01129998826531301</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.0002798577851258586</v>
+        <v>-0.0006186982537491959</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03838369216465553</v>
+        <v>0.03629156657143762</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.03021939252719191</v>
+        <v>-0.04077676658154627</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.131192107300476</v>
+        <v>-0.1404805634533739</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02313086721624955</v>
+        <v>0.03303857409723558</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01311972264432302</v>
+        <v>0.006316763474615402</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.03559478863655493</v>
+        <v>-0.04426801070943757</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0826472047450407</v>
+        <v>0.08677482695395788</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.0008575982467355932</v>
+        <v>-0.02667979303651471</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1514411117325225</v>
+        <v>0.1538270386405661</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.0004756582986604487</v>
+        <v>0.007770692900223957</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.006721601273769123</v>
+        <v>0.01122015927572782</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1146727101642171</v>
+        <v>0.1124315030478655</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1259892443655085</v>
+        <v>-0.1413638925215453</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.005149092729170687</v>
+        <v>0.0005749438942764044</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2060247856349457</v>
+        <v>0.1639879788551495</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1179877925205097</v>
+        <v>0.09047568794228567</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0009349913177370787</v>
+        <v>0.0001327545071111812</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3034715803702613</v>
+        <v>0.3533864208600737</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01712875016670751</v>
+        <v>0.02245442325066644</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.01618710281992659</v>
+        <v>-0.02288369012286666</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01062738992239093</v>
+        <v>0.02393652423912671</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.06367181880514754</v>
+        <v>0.06677669617676359</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.05536451171588776</v>
+        <v>-0.06913289682770833</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.01026333991109764</v>
+        <v>-0.02071661391197662</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.01321182992238598</v>
+        <v>-0.01747482828950684</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.00944829772868069</v>
+        <v>0.03733730773668794</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08136299477358502</v>
+        <v>0.07604889764776318</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01790597052877218</v>
+        <v>0.007215225529062209</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.09106143740512627</v>
+        <v>0.08323251993336171</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.03708151263548087</v>
+        <v>-0.03781711460614754</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03751466237698752</v>
+        <v>0.04035679166499254</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02505889368763221</v>
+        <v>0.03876098396526156</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1702770362830267</v>
+        <v>0.1497451436995903</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.02169634304965889</v>
+        <v>-0.02659203785693141</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1125666738641718</v>
+        <v>0.1181702136412458</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.08181029773972348</v>
+        <v>0.08621751408550679</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.1708877406889865</v>
+        <v>-0.171272461641497</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.03131501228215127</v>
+        <v>-0.03811550722008488</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.09461904387402881</v>
+        <v>-0.07733068319537707</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01725190039785168</v>
+        <v>0.02124978314754177</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.01337387131313585</v>
+        <v>0.01182268172289343</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.04131088743321402</v>
+        <v>0.04633479165276767</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.004077592819615563</v>
+        <v>0.00019035978284274</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1188743089212392</v>
+        <v>0.1003859315446741</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.09620198687928733</v>
+        <v>0.1039565681523756</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.03180684945054535</v>
+        <v>-0.02629969870178938</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.01072357973629516</v>
+        <v>0.001221039914576234</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.02648777604147308</v>
+        <v>0.04007678083919049</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.2943231178727221</v>
+        <v>-0.3403372236049416</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.3850324967847586</v>
+        <v>-0.4603219530040237</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.005770956600004068</v>
+        <v>0.01278087895008525</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.07003151697383922</v>
+        <v>0.02944911573110681</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.01299045906264277</v>
+        <v>-0.03742168493398917</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.04617127342608138</v>
+        <v>0.05650414907813311</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1056226653928243</v>
+        <v>0.1048061593561087</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.03129500411024795</v>
+        <v>0.0381814440516747</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.08647942864542033</v>
+        <v>0.1025257983012688</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.08382647182021702</v>
+        <v>-0.07780144870726786</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.07291487857231928</v>
+        <v>0.08614845814415249</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.141027094424721</v>
+        <v>-0.1505619994792564</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.08679377287135553</v>
+        <v>0.08255004460673604</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1358120707589937</v>
+        <v>0.1439145595555232</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.08590512469212541</v>
+        <v>0.09497933876085</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.06791772756938137</v>
+        <v>0.06380623037312762</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.02100124436367404</v>
+        <v>-0.02517308901803006</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-0.1217702193541977</v>
+        <v>-0.1107096315911861</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.02998194016755904</v>
+        <v>0.0193548015001186</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.07075142161236891</v>
+        <v>-0.07357463886133554</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.1386939767433316</v>
+        <v>-0.156590400364063</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1441809717899108</v>
+        <v>0.15497435065344</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.061538509727093</v>
+        <v>-0.05341572825929351</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.09864540175078078</v>
+        <v>0.09338458385488038</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.06738772094159082</v>
+        <v>0.0485883471230943</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.1213174379288375</v>
+        <v>0.1413650932497852</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.06970710227507089</v>
+        <v>0.07230261050526619</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.02603802081564112</v>
+        <v>0.02260439997202628</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-0.04230118315318914</v>
+        <v>-0.05195609420397863</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.157812024941234</v>
+        <v>-0.1763121712268012</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-0.1305335607692852</v>
+        <v>-0.140285322769385</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.1166634569786315</v>
+        <v>-0.1358580963099025</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2651190966888476</v>
+        <v>0.3011628790656384</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.3415527557411472</v>
+        <v>-0.390128116239349</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.06460699723016715</v>
+        <v>-0.06574615251587002</v>
       </c>
     </row>
   </sheetData>

--- a/player_scores.xlsx
+++ b/player_scores.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02414554235419717</v>
+        <v>-0.02414554235419715</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02775600639231937</v>
+        <v>-0.02775600639231936</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.05399691724685716</v>
+        <v>-0.05399691724685714</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08283518340851156</v>
+        <v>0.08283518340851155</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04538936948287684</v>
+        <v>-0.04538936948287683</v>
       </c>
     </row>
     <row r="9">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05595878353972511</v>
+        <v>0.0559587835397251</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01702676946476363</v>
+        <v>0.0170267694647636</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06964040920961098</v>
+        <v>0.06964040920961097</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.04728365455912673</v>
+        <v>-0.04728365455912672</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.036690726470112</v>
+        <v>-0.03669072647011201</v>
       </c>
     </row>
     <row r="23">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.01482329673449276</v>
+        <v>-0.01482329673449275</v>
       </c>
     </row>
     <row r="27">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.08536670433118942</v>
+        <v>0.08536670433118944</v>
       </c>
     </row>
     <row r="33">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.05972583086399264</v>
+        <v>0.05972583086399265</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.08195638906796375</v>
+        <v>0.08195638906796376</v>
       </c>
     </row>
     <row r="37">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.08639293143202467</v>
+        <v>-0.08639293143202469</v>
       </c>
     </row>
     <row r="39">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01320498561827339</v>
+        <v>-0.01320498561827338</v>
       </c>
     </row>
     <row r="43">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.002213946133020311</v>
+        <v>0.002213946133020312</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.08317388556535235</v>
+        <v>0.08317388556535237</v>
       </c>
     </row>
     <row r="46">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02198896130691561</v>
+        <v>-0.02198896130691562</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04668965534701248</v>
+        <v>0.04668965534701249</v>
       </c>
     </row>
     <row r="49">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.08393785082728504</v>
+        <v>0.08393785082728503</v>
       </c>
     </row>
     <row r="51">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.01129998826531301</v>
+        <v>-0.011299988265313</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.0006186982537491959</v>
+        <v>-0.0006186982537491986</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.03629156657143762</v>
+        <v>0.0362915665714376</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.04077676658154627</v>
+        <v>-0.04077676658154625</v>
       </c>
     </row>
     <row r="65">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.03303857409723558</v>
+        <v>0.03303857409723559</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.006316763474615402</v>
+        <v>0.006316763474615437</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.04426801070943757</v>
+        <v>-0.04426801070943756</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.08677482695395788</v>
+        <v>0.08677482695395787</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.02667979303651471</v>
+        <v>-0.02667979303651472</v>
       </c>
     </row>
     <row r="71">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.007770692900223957</v>
+        <v>0.007770692900223947</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01122015927572782</v>
+        <v>0.0112201592757278</v>
       </c>
     </row>
     <row r="74">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0005749438942764044</v>
+        <v>0.0005749438942764258</v>
       </c>
     </row>
     <row r="77">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09047568794228567</v>
+        <v>0.09047568794228569</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0001327545071111812</v>
+        <v>0.0001327545071111717</v>
       </c>
     </row>
     <row r="80">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02245442325066644</v>
+        <v>0.02245442325066643</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.02288369012286666</v>
+        <v>-0.02288369012286665</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02393652423912671</v>
+        <v>0.02393652423912669</v>
       </c>
     </row>
     <row r="84">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.02071661391197662</v>
+        <v>-0.0207166139119766</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.01747482828950684</v>
+        <v>-0.01747482828950685</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.03733730773668794</v>
+        <v>0.03733730773668795</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.007215225529062209</v>
+        <v>0.007215225529062202</v>
       </c>
     </row>
     <row r="91">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.03781711460614754</v>
+        <v>-0.03781711460614755</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.04035679166499254</v>
+        <v>0.04035679166499256</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.03876098396526156</v>
+        <v>0.03876098396526158</v>
       </c>
     </row>
     <row r="95">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.02659203785693141</v>
+        <v>-0.02659203785693139</v>
       </c>
     </row>
     <row r="97">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.08621751408550679</v>
+        <v>0.08621751408550678</v>
       </c>
     </row>
     <row r="99">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.03811550722008488</v>
+        <v>-0.03811550722008485</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.07733068319537707</v>
+        <v>-0.07733068319537709</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.02124978314754177</v>
+        <v>0.02124978314754178</v>
       </c>
     </row>
     <row r="103">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.04633479165276767</v>
+        <v>0.04633479165276765</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.00019035978284274</v>
+        <v>0.0001903597828427487</v>
       </c>
     </row>
     <row r="106">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.001221039914576234</v>
+        <v>0.001221039914576241</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.04007678083919049</v>
+        <v>0.04007678083919051</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.3403372236049416</v>
+        <v>-0.3403372236049415</v>
       </c>
     </row>
     <row r="112">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.01278087895008525</v>
+        <v>0.01278087895008526</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.02944911573110681</v>
+        <v>0.02944911573110682</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.03742168493398917</v>
+        <v>-0.03742168493398918</v>
       </c>
     </row>
     <row r="116">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1048061593561087</v>
+        <v>0.1048061593561086</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0381814440516747</v>
+        <v>0.03818144405167472</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1025257983012688</v>
+        <v>0.1025257983012687</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.07780144870726786</v>
+        <v>-0.07780144870726785</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.08614845814415249</v>
+        <v>0.08614845814415251</v>
       </c>
     </row>
     <row r="122">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.08255004460673604</v>
+        <v>0.08255004460673605</v>
       </c>
     </row>
     <row r="124">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.09497933876085</v>
+        <v>0.09497933876084999</v>
       </c>
     </row>
     <row r="126">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.07357463886133554</v>
+        <v>-0.07357463886133557</v>
       </c>
     </row>
     <row r="131">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-0.05341572825929351</v>
+        <v>-0.05341572825929349</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.09338458385488038</v>
+        <v>0.09338458385488037</v>
       </c>
     </row>
     <row r="135">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.07230261050526619</v>
+        <v>0.07230261050526621</v>
       </c>
     </row>
     <row r="138">
